--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
@@ -398,12 +398,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -436,12 +442,6 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,17 +963,17 @@
           <t>Application Workloads</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>15-25 applications</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>50-100 applications</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>200+ applications</t>
         </is>
@@ -985,32 +985,32 @@
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="39" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Migration Scope</t>
         </is>
       </c>
-      <c r="B4" s="40" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>Database Instances</t>
         </is>
       </c>
-      <c r="C4" s="40" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
         <is>
           <t>1-2 databases</t>
         </is>
       </c>
-      <c r="D4" s="40" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>5-10 databases</t>
         </is>
       </c>
-      <c r="E4" s="40" t="inlineStr">
+      <c r="E4" s="42" t="inlineStr">
         <is>
           <t>20+ databases</t>
         </is>
       </c>
-      <c r="F4" s="40" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Database migration complexity</t>
         </is>
@@ -1027,17 +1027,17 @@
           <t>Application Tier</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>3 t3.large instances</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>6-8 m5.xlarge instances</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>15+ m5.2xlarge instances</t>
         </is>
@@ -1049,32 +1049,32 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="39" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="40" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Database Size</t>
         </is>
       </c>
-      <c r="C6" s="40" t="inlineStr">
+      <c r="C6" s="42" t="inlineStr">
         <is>
           <t>db.t3.large Multi-AZ</t>
         </is>
       </c>
-      <c r="D6" s="40" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>db.r5.xlarge Multi-AZ</t>
         </is>
       </c>
-      <c r="E6" s="40" t="inlineStr">
+      <c r="E6" s="42" t="inlineStr">
         <is>
           <t>db.r5.4xlarge Multi-AZ</t>
         </is>
       </c>
-      <c r="F6" s="40" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>RDS instance sizing</t>
         </is>
@@ -1091,17 +1091,17 @@
           <t>Storage Volume</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>1 TB</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>5 TB</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>20+ TB</t>
         </is>
@@ -1113,32 +1113,32 @@
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="39" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="40" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>Migration Data Transfer</t>
         </is>
       </c>
-      <c r="C8" s="40" t="inlineStr">
+      <c r="C8" s="42" t="inlineStr">
         <is>
           <t>2 TB initial transfer</t>
         </is>
       </c>
-      <c r="D8" s="40" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>10 TB initial transfer</t>
         </is>
       </c>
-      <c r="E8" s="40" t="inlineStr">
+      <c r="E8" s="42" t="inlineStr">
         <is>
           <t>50+ TB initial transfer</t>
         </is>
       </c>
-      <c r="F8" s="40" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>One-time data migration volume</t>
         </is>
@@ -1155,17 +1155,17 @@
           <t>Migration Duration</t>
         </is>
       </c>
-      <c r="C9" s="38" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>4-6 months</t>
         </is>
       </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>9-12 months</t>
         </is>
       </c>
-      <c r="E9" s="38" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>18+ months</t>
         </is>
@@ -1177,32 +1177,32 @@
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="39" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B10" s="40" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Support Level</t>
         </is>
       </c>
-      <c r="C10" s="40" t="inlineStr">
+      <c r="C10" s="42" t="inlineStr">
         <is>
           <t>Business hours</t>
         </is>
       </c>
-      <c r="D10" s="40" t="inlineStr">
+      <c r="D10" s="42" t="inlineStr">
         <is>
           <t>24x5 support</t>
         </is>
       </c>
-      <c r="E10" s="40" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>24x7 premium</t>
         </is>
       </c>
-      <c r="F10" s="40" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>SLA requirements</t>
         </is>
@@ -1310,1013 +1310,1013 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="42" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>EC2 Application Tier</t>
         </is>
       </c>
-      <c r="C3" s="42" t="inlineStr">
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>t3.large instances for migrated apps</t>
         </is>
       </c>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E3" s="42" t="inlineStr">
+      <c r="E3" s="44" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F3" s="44" t="n">
+      <c r="F3" s="46" t="n">
         <v>67.5</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <f>D3*F3*12</f>
         <v/>
       </c>
-      <c r="H3" s="44">
+      <c r="H3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="46">
         <f>G3+H3+I3</f>
         <v/>
       </c>
-      <c r="K3" s="42" t="inlineStr">
+      <c r="K3" s="44" t="inlineStr">
         <is>
           <t>Target application servers</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="46" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>RDS Multi-AZ Database</t>
         </is>
       </c>
-      <c r="C4" s="46" t="inlineStr">
+      <c r="C4" s="48" t="inlineStr">
         <is>
           <t>db.t3.large PostgreSQL managed database</t>
         </is>
       </c>
-      <c r="D4" s="47" t="n">
+      <c r="D4" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="46" t="inlineStr">
+      <c r="E4" s="48" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F4" s="48" t="n">
+      <c r="F4" s="50" t="n">
         <v>288</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="50">
         <f>D4*F4*12</f>
         <v/>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="50">
         <f>G4+H4+I4</f>
         <v/>
       </c>
-      <c r="K4" s="46" t="inlineStr">
+      <c r="K4" s="48" t="inlineStr">
         <is>
           <t>Migrated database</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B5" s="42" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>S3 Standard Storage</t>
         </is>
       </c>
-      <c r="C5" s="42" t="inlineStr">
+      <c r="C5" s="44" t="inlineStr">
         <is>
           <t>App data and backups (1TB)</t>
         </is>
       </c>
-      <c r="D5" s="43" t="n">
+      <c r="D5" s="45" t="n">
         <v>1000</v>
       </c>
-      <c r="E5" s="42" t="inlineStr">
+      <c r="E5" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F5" s="44" t="n">
+      <c r="F5" s="46" t="n">
         <v>0.023</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <f>D5*F5*12</f>
         <v/>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="46">
         <f>G5+H5+I5</f>
         <v/>
       </c>
-      <c r="K5" s="42" t="inlineStr">
+      <c r="K5" s="44" t="inlineStr">
         <is>
           <t>Object storage</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="46" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>EBS General Purpose SSD</t>
         </is>
       </c>
-      <c r="C6" s="46" t="inlineStr">
+      <c r="C6" s="48" t="inlineStr">
         <is>
           <t>Block storage volumes (500GB)</t>
         </is>
       </c>
-      <c r="D6" s="47" t="n">
+      <c r="D6" s="49" t="n">
         <v>500</v>
       </c>
-      <c r="E6" s="46" t="inlineStr">
+      <c r="E6" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F6" s="48" t="n">
+      <c r="F6" s="50" t="n">
         <v>0.1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <f>D6*F6*12</f>
         <v/>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="50">
         <f>G6+H6+I6</f>
         <v/>
       </c>
-      <c r="K6" s="46" t="inlineStr">
+      <c r="K6" s="48" t="inlineStr">
         <is>
           <t>Block storage</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="42" t="inlineStr">
+      <c r="B7" s="44" t="inlineStr">
         <is>
           <t>Application Load Balancer</t>
         </is>
       </c>
-      <c r="C7" s="42" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>Load balancing and SSL termination</t>
         </is>
       </c>
-      <c r="D7" s="43" t="n">
+      <c r="D7" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="42" t="inlineStr">
+      <c r="E7" s="44" t="inlineStr">
         <is>
           <t>ALB/Month</t>
         </is>
       </c>
-      <c r="F7" s="44" t="n">
+      <c r="F7" s="46" t="n">
         <v>22.5</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="46">
         <f>D7*F7*12</f>
         <v/>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="46">
         <f>G7+H7+I7</f>
         <v/>
       </c>
-      <c r="K7" s="42" t="inlineStr">
+      <c r="K7" s="44" t="inlineStr">
         <is>
           <t>Load balancing</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="45" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="46" t="inlineStr">
+      <c r="B8" s="48" t="inlineStr">
         <is>
           <t>CloudFront CDN</t>
         </is>
       </c>
-      <c r="C8" s="46" t="inlineStr">
+      <c r="C8" s="48" t="inlineStr">
         <is>
           <t>Static content delivery (200GB/month)</t>
         </is>
       </c>
-      <c r="D8" s="47" t="n">
+      <c r="D8" s="49" t="n">
         <v>200</v>
       </c>
-      <c r="E8" s="46" t="inlineStr">
+      <c r="E8" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F8" s="48" t="n">
+      <c r="F8" s="50" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="50">
         <f>D8*F8*12</f>
         <v/>
       </c>
-      <c r="H8" s="48">
+      <c r="H8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="50">
         <f>G8+H8+I8</f>
         <v/>
       </c>
-      <c r="K8" s="46" t="inlineStr">
+      <c r="K8" s="48" t="inlineStr">
         <is>
           <t>Content delivery</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="41" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B9" s="42" t="inlineStr">
+      <c r="B9" s="44" t="inlineStr">
         <is>
           <t>VPC Networking</t>
         </is>
       </c>
-      <c r="C9" s="42" t="inlineStr">
+      <c r="C9" s="44" t="inlineStr">
         <is>
           <t>Virtual private cloud with subnets</t>
         </is>
       </c>
-      <c r="D9" s="43" t="n">
+      <c r="D9" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="42" t="inlineStr">
+      <c r="E9" s="44" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F9" s="44" t="n">
+      <c r="F9" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="46">
         <f>D9*F9*12</f>
         <v/>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="46">
         <f>G9+H9+I9</f>
         <v/>
       </c>
-      <c r="K9" s="42" t="inlineStr">
+      <c r="K9" s="44" t="inlineStr">
         <is>
           <t>Network infrastructure</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="45" t="inlineStr">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B10" s="46" t="inlineStr">
+      <c r="B10" s="48" t="inlineStr">
         <is>
           <t>NAT Gateway</t>
         </is>
       </c>
-      <c r="C10" s="46" t="inlineStr">
+      <c r="C10" s="48" t="inlineStr">
         <is>
           <t>Outbound internet access (single AZ)</t>
         </is>
       </c>
-      <c r="D10" s="47" t="n">
+      <c r="D10" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="46" t="inlineStr">
+      <c r="E10" s="48" t="inlineStr">
         <is>
           <t>Gateway/Month</t>
         </is>
       </c>
-      <c r="F10" s="48" t="n">
+      <c r="F10" s="50" t="n">
         <v>32.85</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="50">
         <f>D10*F10*12</f>
         <v/>
       </c>
-      <c r="H10" s="48">
+      <c r="H10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="50">
         <f>G10+H10+I10</f>
         <v/>
       </c>
-      <c r="K10" s="46" t="inlineStr">
+      <c r="K10" s="48" t="inlineStr">
         <is>
           <t>Outbound connectivity</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="41" t="inlineStr">
+      <c r="A11" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B11" s="42" t="inlineStr">
+      <c r="B11" s="44" t="inlineStr">
         <is>
           <t>Route 53 DNS</t>
         </is>
       </c>
-      <c r="C11" s="42" t="inlineStr">
+      <c r="C11" s="44" t="inlineStr">
         <is>
           <t>DNS management (2 hosted zones)</t>
         </is>
       </c>
-      <c r="D11" s="43" t="n">
+      <c r="D11" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="42" t="inlineStr">
+      <c r="E11" s="44" t="inlineStr">
         <is>
           <t>Zones/Month</t>
         </is>
       </c>
-      <c r="F11" s="44" t="n">
+      <c r="F11" s="46" t="n">
         <v>0.5</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="46">
         <f>D11*F11*12</f>
         <v/>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="46">
         <f>G11+H11+I11</f>
         <v/>
       </c>
-      <c r="K11" s="42" t="inlineStr">
+      <c r="K11" s="44" t="inlineStr">
         <is>
           <t>DNS management</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="45" t="inlineStr">
+      <c r="A12" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B12" s="46" t="inlineStr">
+      <c r="B12" s="48" t="inlineStr">
         <is>
           <t>Site-to-Site VPN</t>
         </is>
       </c>
-      <c r="C12" s="46" t="inlineStr">
+      <c r="C12" s="48" t="inlineStr">
         <is>
           <t>Secure VPN for migration connectivity</t>
         </is>
       </c>
-      <c r="D12" s="47" t="n">
+      <c r="D12" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="46" t="inlineStr">
+      <c r="E12" s="48" t="inlineStr">
         <is>
           <t>Connection/Month</t>
         </is>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="50" t="n">
         <v>36</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="50">
         <f>D12*F12*12</f>
         <v/>
       </c>
-      <c r="H12" s="48">
+      <c r="H12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="I12" s="48">
+      <c r="I12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="50">
         <f>G12+H12+I12</f>
         <v/>
       </c>
-      <c r="K12" s="46" t="inlineStr">
+      <c r="K12" s="48" t="inlineStr">
         <is>
           <t>Hybrid connectivity</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="41" t="inlineStr">
+      <c r="A13" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B13" s="42" t="inlineStr">
+      <c r="B13" s="44" t="inlineStr">
         <is>
           <t>ElastiCache Redis</t>
         </is>
       </c>
-      <c r="C13" s="42" t="inlineStr">
+      <c r="C13" s="44" t="inlineStr">
         <is>
           <t>In-memory caching (cache.t3.medium)</t>
         </is>
       </c>
-      <c r="D13" s="43" t="n">
+      <c r="D13" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="42" t="inlineStr">
+      <c r="E13" s="44" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F13" s="44" t="n">
+      <c r="F13" s="46" t="n">
         <v>32.5</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="46">
         <f>D13*F13*12</f>
         <v/>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="46">
         <f>G13+H13+I13</f>
         <v/>
       </c>
-      <c r="K13" s="42" t="inlineStr">
+      <c r="K13" s="44" t="inlineStr">
         <is>
           <t>Application caching</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="45" t="inlineStr">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B14" s="46" t="inlineStr">
+      <c r="B14" s="48" t="inlineStr">
         <is>
           <t>CloudWatch Logs</t>
         </is>
       </c>
-      <c r="C14" s="46" t="inlineStr">
+      <c r="C14" s="48" t="inlineStr">
         <is>
           <t>Centralized logging (50GB)</t>
         </is>
       </c>
-      <c r="D14" s="47" t="n">
+      <c r="D14" s="49" t="n">
         <v>50</v>
       </c>
-      <c r="E14" s="46" t="inlineStr">
+      <c r="E14" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F14" s="48" t="n">
+      <c r="F14" s="50" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="50">
         <f>D14*F14*12</f>
         <v/>
       </c>
-      <c r="H14" s="48">
+      <c r="H14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="50">
         <f>G14+H14+I14</f>
         <v/>
       </c>
-      <c r="K14" s="46" t="inlineStr">
+      <c r="K14" s="48" t="inlineStr">
         <is>
           <t>Log management</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="41" t="inlineStr">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B15" s="42" t="inlineStr">
+      <c r="B15" s="44" t="inlineStr">
         <is>
           <t>CloudWatch Metrics</t>
         </is>
       </c>
-      <c r="C15" s="42" t="inlineStr">
+      <c r="C15" s="44" t="inlineStr">
         <is>
           <t>Monitoring (100 custom metrics)</t>
         </is>
       </c>
-      <c r="D15" s="43" t="n">
+      <c r="D15" s="45" t="n">
         <v>100</v>
       </c>
-      <c r="E15" s="42" t="inlineStr">
+      <c r="E15" s="44" t="inlineStr">
         <is>
           <t>Metrics/Month</t>
         </is>
       </c>
-      <c r="F15" s="44" t="n">
+      <c r="F15" s="46" t="n">
         <v>0.3</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="46">
         <f>D15*F15*12</f>
         <v/>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="46">
         <f>G15+H15+I15</f>
         <v/>
       </c>
-      <c r="K15" s="42" t="inlineStr">
+      <c r="K15" s="44" t="inlineStr">
         <is>
           <t>Custom metrics</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="45" t="inlineStr">
+      <c r="A16" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B16" s="46" t="inlineStr">
+      <c r="B16" s="48" t="inlineStr">
         <is>
           <t>Systems Manager</t>
         </is>
       </c>
-      <c r="C16" s="46" t="inlineStr">
+      <c r="C16" s="48" t="inlineStr">
         <is>
           <t>Configuration management</t>
         </is>
       </c>
-      <c r="D16" s="47" t="n">
+      <c r="D16" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="46" t="inlineStr">
+      <c r="E16" s="48" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="50">
         <f>D16*F16*12</f>
         <v/>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="50">
         <f>G16+H16+I16</f>
         <v/>
       </c>
-      <c r="K16" s="46" t="inlineStr">
+      <c r="K16" s="48" t="inlineStr">
         <is>
           <t>Free tier</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="41" t="inlineStr">
+      <c r="A17" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B17" s="42" t="inlineStr">
+      <c r="B17" s="44" t="inlineStr">
         <is>
           <t>Secrets Manager</t>
         </is>
       </c>
-      <c r="C17" s="42" t="inlineStr">
+      <c r="C17" s="44" t="inlineStr">
         <is>
           <t>Secure credential storage (10 secrets)</t>
         </is>
       </c>
-      <c r="D17" s="43" t="n">
+      <c r="D17" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E17" s="42" t="inlineStr">
+      <c r="E17" s="44" t="inlineStr">
         <is>
           <t>Secrets/Month</t>
         </is>
       </c>
-      <c r="F17" s="44" t="n">
+      <c r="F17" s="46" t="n">
         <v>0.4</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="46">
         <f>D17*F17*12</f>
         <v/>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="46">
         <f>G17+H17+I17</f>
         <v/>
       </c>
-      <c r="K17" s="42" t="inlineStr">
+      <c r="K17" s="44" t="inlineStr">
         <is>
           <t>Secrets management</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="45" t="inlineStr">
+      <c r="A18" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B18" s="46" t="inlineStr">
+      <c r="B18" s="48" t="inlineStr">
         <is>
           <t>AWS Backup</t>
         </is>
       </c>
-      <c r="C18" s="46" t="inlineStr">
+      <c r="C18" s="48" t="inlineStr">
         <is>
           <t>Automated backup management (500GB)</t>
         </is>
       </c>
-      <c r="D18" s="47" t="n">
+      <c r="D18" s="49" t="n">
         <v>500</v>
       </c>
-      <c r="E18" s="46" t="inlineStr">
+      <c r="E18" s="48" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F18" s="48" t="n">
+      <c r="F18" s="50" t="n">
         <v>0.05</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="50">
         <f>D18*F18*12</f>
         <v/>
       </c>
-      <c r="H18" s="48">
+      <c r="H18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="50">
         <f>G18+H18+I18</f>
         <v/>
       </c>
-      <c r="K18" s="46" t="inlineStr">
+      <c r="K18" s="48" t="inlineStr">
         <is>
           <t>Backup service</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="41" t="inlineStr">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B19" s="42" t="inlineStr">
+      <c r="B19" s="44" t="inlineStr">
         <is>
           <t>Data Transfer (Migration)</t>
         </is>
       </c>
-      <c r="C19" s="42" t="inlineStr">
+      <c r="C19" s="44" t="inlineStr">
         <is>
           <t>Initial data transfer (2TB one-time)</t>
         </is>
       </c>
-      <c r="D19" s="43" t="n">
+      <c r="D19" s="45" t="n">
         <v>2000</v>
       </c>
-      <c r="E19" s="42" t="inlineStr">
+      <c r="E19" s="44" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="F19" s="44" t="n">
+      <c r="F19" s="46" t="n">
         <v>0.05</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="46">
         <f>D19*F19</f>
         <v/>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="46">
         <f>$0</f>
         <v/>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="46">
         <f>$0</f>
         <v/>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="46">
         <f>G19</f>
         <v/>
       </c>
-      <c r="K19" s="42" t="inlineStr">
+      <c r="K19" s="44" t="inlineStr">
         <is>
           <t>One-time migration cost</t>
         </is>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="45" t="inlineStr">
+      <c r="A20" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B20" s="46" t="inlineStr">
+      <c r="B20" s="48" t="inlineStr">
         <is>
           <t>Datadog Monitoring</t>
         </is>
       </c>
-      <c r="C20" s="46" t="inlineStr">
+      <c r="C20" s="48" t="inlineStr">
         <is>
           <t>Pro monitoring (6 hosts for migrated apps)</t>
         </is>
       </c>
-      <c r="D20" s="47" t="n">
+      <c r="D20" s="49" t="n">
         <v>6</v>
       </c>
-      <c r="E20" s="46" t="inlineStr">
+      <c r="E20" s="48" t="inlineStr">
         <is>
           <t>Hosts/Month</t>
         </is>
       </c>
-      <c r="F20" s="48" t="n">
+      <c r="F20" s="50" t="n">
         <v>23</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="50">
         <f>D20*F20*12</f>
         <v/>
       </c>
-      <c r="H20" s="48">
+      <c r="H20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="50">
         <f>G20+H20+I20</f>
         <v/>
       </c>
-      <c r="K20" s="46" t="inlineStr">
+      <c r="K20" s="48" t="inlineStr">
         <is>
           <t>Application monitoring</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="41" t="inlineStr">
+      <c r="A21" s="43" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B21" s="42" t="inlineStr">
+      <c r="B21" s="44" t="inlineStr">
         <is>
           <t>PagerDuty</t>
         </is>
       </c>
-      <c r="C21" s="42" t="inlineStr">
+      <c r="C21" s="44" t="inlineStr">
         <is>
           <t>Professional incident management (3 users)</t>
         </is>
       </c>
-      <c r="D21" s="43" t="n">
+      <c r="D21" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E21" s="42" t="inlineStr">
+      <c r="E21" s="44" t="inlineStr">
         <is>
           <t>Users/Month</t>
         </is>
       </c>
-      <c r="F21" s="44" t="n">
+      <c r="F21" s="46" t="n">
         <v>41</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="46">
         <f>D21*F21*12</f>
         <v/>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="46">
         <f>G21+H21+I21</f>
         <v/>
       </c>
-      <c r="K21" s="42" t="inlineStr">
+      <c r="K21" s="44" t="inlineStr">
         <is>
           <t>Incident management</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="45" t="inlineStr">
+      <c r="A22" s="47" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B22" s="46" t="inlineStr">
+      <c r="B22" s="48" t="inlineStr">
         <is>
           <t>AWS Managed Services</t>
         </is>
       </c>
-      <c r="C22" s="46" t="inlineStr">
+      <c r="C22" s="48" t="inlineStr">
         <is>
           <t>Managed services and ongoing optimization (15% of infrastructure)</t>
         </is>
       </c>
-      <c r="D22" s="47" t="n">
+      <c r="D22" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="46" t="inlineStr">
+      <c r="E22" s="48" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F22" s="48" t="n">
+      <c r="F22" s="50" t="n">
         <v>121.83</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="50">
         <f>D22*F22*12</f>
         <v/>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="50">
         <f>G22</f>
         <v/>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="50">
         <f>G22</f>
         <v/>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="50">
         <f>G22+H22+I22</f>
         <v/>
       </c>
-      <c r="K22" s="46" t="inlineStr">
+      <c r="K22" s="48" t="inlineStr">
         <is>
           <t>Ongoing support</t>
         </is>
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B23" s="50" t="n"/>
-      <c r="C23" s="50" t="n"/>
-      <c r="D23" s="50" t="n"/>
-      <c r="E23" s="50" t="n"/>
-      <c r="F23" s="50" t="n"/>
-      <c r="G23" s="51">
+      <c r="B23" s="52" t="n"/>
+      <c r="C23" s="52" t="n"/>
+      <c r="D23" s="52" t="n"/>
+      <c r="E23" s="52" t="n"/>
+      <c r="F23" s="52" t="n"/>
+      <c r="G23" s="53">
         <f>SUM(G3:G22)</f>
         <v/>
       </c>
-      <c r="H23" s="51">
+      <c r="H23" s="53">
         <f>SUM(H3:H22)</f>
         <v/>
       </c>
-      <c r="I23" s="51">
+      <c r="I23" s="53">
         <f>SUM(I3:I22)</f>
         <v/>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="53">
         <f>SUM(J3:J22)</f>
         <v/>
       </c>
-      <c r="K23" s="50" t="n"/>
+      <c r="K23" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K23"/>
@@ -2378,140 +2378,140 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="52" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>AWS MAP Consumption Credit</t>
         </is>
       </c>
-      <c r="C3" s="44" t="n">
+      <c r="C3" s="46" t="n">
         <v>-3317</v>
       </c>
-      <c r="D3" s="52" t="inlineStr">
+      <c r="D3" s="44" t="inlineStr">
         <is>
           <t>35% credit on Year 1 cloud infrastructure consumption (excludes one-time data transfer)</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="53" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>Partner Credit</t>
         </is>
       </c>
-      <c r="C4" s="48" t="n">
+      <c r="C4" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="53" t="inlineStr">
+      <c r="D4" s="48" t="inlineStr">
         <is>
           <t>No software credits available</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="52" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>Program Credit</t>
         </is>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="52" t="inlineStr">
+      <c r="D5" s="44" t="inlineStr">
         <is>
           <t>No support credits available</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Hardware/Equipment</t>
         </is>
       </c>
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>Equipment Credit</t>
         </is>
       </c>
-      <c r="C6" s="48" t="n">
+      <c r="C6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="53" t="inlineStr">
+      <c r="D6" s="48" t="inlineStr">
         <is>
           <t>No hardware credits available</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="41" t="inlineStr">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B7" s="52" t="inlineStr">
+      <c r="B7" s="44" t="inlineStr">
         <is>
           <t>AWS MAP Assessment Credit</t>
         </is>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="46" t="n">
         <v>-12000</v>
       </c>
-      <c r="D7" s="52" t="inlineStr">
+      <c r="D7" s="44" t="inlineStr">
         <is>
           <t>100% funded - discovery and assessment phase</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="45" t="inlineStr">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B8" s="53" t="inlineStr">
+      <c r="B8" s="48" t="inlineStr">
         <is>
           <t>AWS MAP Mobilize Credit</t>
         </is>
       </c>
-      <c r="C8" s="48" t="n">
+      <c r="C8" s="50" t="n">
         <v>-5000</v>
       </c>
-      <c r="D8" s="53" t="inlineStr">
+      <c r="D8" s="48" t="inlineStr">
         <is>
           <t>Partial funding - migration strategy and planning</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="41" t="inlineStr">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B9" s="52" t="inlineStr">
+      <c r="B9" s="44" t="inlineStr">
         <is>
           <t>AWS MAP Migrate Credit</t>
         </is>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="46" t="n">
         <v>-5000</v>
       </c>
-      <c r="D9" s="52" t="inlineStr">
+      <c r="D9" s="44" t="inlineStr">
         <is>
           <t>Partial funding - application lift-and-shift migration</t>
         </is>
@@ -2595,156 +2595,156 @@
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="41" t="inlineStr">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="46">
         <f>SUMIF(Credits!$A:$A,A3,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="46">
         <f>B3+C3</f>
         <v/>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="46">
         <f>D3+E3+F3</f>
         <v/>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="45" t="inlineStr">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="50">
         <f>SUMIF(Credits!$A:$A,A4,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="50">
         <f>B4+C4</f>
         <v/>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="50">
         <f>D4+E4+F4</f>
         <v/>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="41" t="inlineStr">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="46">
         <f>SUMIF(Credits!$A:$A,A5,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="46">
         <f>B5+C5</f>
         <v/>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="46">
         <f>D5+E5+F5</f>
         <v/>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="45" t="inlineStr">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="50">
         <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="50">
         <f>B6+C6</f>
         <v/>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="50">
         <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="53">
         <f>SUM(B3:B6)</f>
         <v/>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="53">
         <f>SUM(C3:C6)</f>
         <v/>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="53">
         <f>SUM(D3:D6)</f>
         <v/>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="53">
         <f>SUM(E3:E6)</f>
         <v/>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="53">
         <f>SUM(F3:F6)</f>
         <v/>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="53">
         <f>SUM(G3:G6)</f>
         <v/>
       </c>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
@@ -7,16 +7,16 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SIZING GUIDELINES" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INFRASTRUCTURE COSTS" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CREDITS" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SUMMARY" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sizing Guidelines" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Infrastructure Costs" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credits" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3-Year Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SIZING GUIDELINES'!$A$2:$F$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'INFRASTRUCTURE COSTS'!$A$2:$K$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'CREDITS'!$A$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'SUMMARY'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -916,7 +916,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>SIZING GUIDELINES - Based on Solution Scope (Default: Small)</t>
+          <t>Sizing Guidelines</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
     <col width="30" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
     <col width="12" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="12" customWidth="1" min="8" max="8"/>
@@ -1248,7 +1248,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>INFRASTRUCTURE COSTS - Quantities Default to Small Scope</t>
+          <t>Infrastructure Costs</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>CREDITS - Applied per Category (Year 1 Only)</t>
+          <t>Credits</t>
         </is>
       </c>
     </row>
@@ -2553,7 +2553,7 @@
     <row r="1" ht="32" customHeight="1">
       <c r="A1" s="35" t="inlineStr">
         <is>
-          <t>SUMMARY</t>
+          <t>3-Year Summary</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/cloud/onpremise-to-cloud-migration/presales/infrastructure-costs.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1115,7 +1115,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="41" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1410,7 +1410,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
@@ -2047,7 +2047,7 @@
     <row r="18" ht="26" customHeight="1">
       <c r="A18" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B18" s="48" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="19" ht="26" customHeight="1">
       <c r="A19" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B19" s="44" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2532,7 +2532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2597,7 +2597,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2688,69 +2688,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
